--- a/scenarios/cough/processes/TwoWays.xlsx
+++ b/scenarios/cough/processes/TwoWays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">two_ways</t>
@@ -125,7 +131,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,7 +141,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3652A0"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF3652A0"/>
       </patternFill>
     </fill>
     <fill>
@@ -212,11 +224,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,11 +245,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,7 +351,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -355,10 +371,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,64 +409,70 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
+      <c r="A4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
